--- a/static/inputData/company_details.xlsx
+++ b/static/inputData/company_details.xlsx
@@ -28,60 +28,69 @@
     <t>Pure &amp; Cure Healthcare Pvt. Ltd.</t>
   </si>
   <si>
+    <t>Quixotic Healthcare</t>
+  </si>
+  <si>
+    <t>Anant Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idel Pet Indistries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Smith Biotech pvt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om Sai </t>
+  </si>
+  <si>
+    <t>M/S Uni Medicolabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jai mittra </t>
+  </si>
+  <si>
+    <t>Lomus Pharmacuticals</t>
+  </si>
+  <si>
+    <t>Cennet Biopharma Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Genetica(Nepal)</t>
+  </si>
+  <si>
+    <t>Hab Pharma</t>
+  </si>
+  <si>
+    <t>Win Medicare PVT.LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishaanav </t>
+  </si>
+  <si>
+    <t>Yacca Lifescience Pvt.Ltd</t>
+  </si>
+  <si>
+    <t>ALDER BIOCHEM</t>
+  </si>
+  <si>
+    <t>Protech Telelinks</t>
+  </si>
+  <si>
+    <t>VED LIFESAVERS (P) LTD.</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>IGL</t>
+  </si>
+  <si>
+    <t>Aarna Healthcare</t>
+  </si>
+  <si>
     <t>Prohealth Lifesciences</t>
   </si>
   <si>
-    <t xml:space="preserve">Om Sai </t>
-  </si>
-  <si>
-    <t>M/S Uni Medicolabs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jai mittra </t>
-  </si>
-  <si>
-    <t>Lomus Pharmacuticals</t>
-  </si>
-  <si>
-    <t>Cennet Biopharma Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Genetica(Nepal)</t>
-  </si>
-  <si>
-    <t>Win Medicare PVT.LTD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idel Pet Indistries </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ishaanav </t>
-  </si>
-  <si>
-    <t>Yacca Lifescience Pvt.Ltd</t>
-  </si>
-  <si>
-    <t>ALDER BIOCHEM</t>
-  </si>
-  <si>
-    <t>Protech Telelinks</t>
-  </si>
-  <si>
-    <t>VED LIFESAVERS (P) LTD.</t>
-  </si>
-  <si>
-    <t>Oasis</t>
-  </si>
-  <si>
-    <t>IGL</t>
-  </si>
-  <si>
-    <t>Hab Pharma</t>
-  </si>
-  <si>
-    <t>Aarna Healthcare</t>
-  </si>
-  <si>
     <t>Russan Pharma Limited</t>
   </si>
   <si>
@@ -97,72 +106,72 @@
     <t>Themis Medicare Limited</t>
   </si>
   <si>
-    <t>Quixotic Healthcare</t>
-  </si>
-  <si>
-    <t>Anant Pharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Smith Biotech pvt </t>
-  </si>
-  <si>
     <t xml:space="preserve">Plot No.27-30, Sec. 8A, IIE, SIDCUL, Ranipur  HARIDWAR </t>
   </si>
   <si>
+    <t>Plot No-88A,EPIP Phase-II,Thana, Baddi,Distt. Salon (H.P.)</t>
+  </si>
+  <si>
+    <t>G.T Road Uchani ,Karnal (132001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Village-  Moginand ,Nahan Road Kala Amb </t>
+  </si>
+  <si>
+    <t>Plot No:B-5, khasra no.9 &amp;10,Dev  Bhoomi industrial Estate Banfakhedi Roorkee, Distt.Haridwar,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARIDWAR SEDIKUL </t>
+  </si>
+  <si>
+    <t>: Plot No. 21,22 Pharmacity Selaqui Dehradun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONIPAT HARIYANA </t>
+  </si>
+  <si>
+    <t>P.O. Box  No. 4506,Lomus House Kallaschour , Gairidhara,   ..Lazimpat,Kathmandu ,Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plot No .3 ,Phase-3,  Sector-18,  Industrial Estate , Barhi, Sonipat,Hariyana , India</t>
+  </si>
+  <si>
+    <t>Motisar, Bara, Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, Pharmacity, SIDCUL, Industrial Area, Selaqui, Dehradun </t>
+  </si>
+  <si>
+    <t>Modipuram  Meerut Muzaffarnagar Road,250110 UP</t>
+  </si>
+  <si>
+    <t>Khasara No.1016,Central Hope Town, Camp Road ,Selaqui, Dehradun</t>
+  </si>
+  <si>
+    <t>156, Raipur, Bhagwanpur,Roorkee-247661(U.K.) India</t>
+  </si>
+  <si>
+    <t>4A,Sara Industial Estate Ltd.Selaqui,Rampur-248197 Dehradun(U.K)</t>
+  </si>
+  <si>
+    <t>Ogli,Suketi Road,P.O.-Kala Amb,Tehsil-Nahan,Dist-Sirmour(H.P.)</t>
+  </si>
+  <si>
+    <t>Plot no.A-3,Sara Industrial Area ,Shankarpur,Hukumatpur Tehsil-Vikasnagar ,Dist-Dehradun(U.K)</t>
+  </si>
+  <si>
+    <t>E-18 Selaqui Industrial Area, Dehradun Uttarakhand</t>
+  </si>
+  <si>
+    <t>Plot No 2-5, Pharmacity, Selaqui, Dehradun (U.K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nand Nagri Industrial State, Phase-II, Mahua Khera Ganj, Kashipur Udham Singh Nagar, </t>
+  </si>
+  <si>
     <t>Plot No.177,JLPL Industrial Area,Sector-82,Mohali Panjab-160082</t>
   </si>
   <si>
-    <t xml:space="preserve">HARIDWAR SEDIKUL </t>
-  </si>
-  <si>
-    <t>: Plot No. 21,22 Pharmacity Selaqui Dehradun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONIPAT HARIYANA </t>
-  </si>
-  <si>
-    <t>P.O. Box  No. 4506,Lomus House Kallaschour , Gairidhara,   ..Lazimpat,Kathmandu ,Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plot No .3 ,Phase-3,  Sector-18,  Industrial Estate , Barhi, Sonipat,Hariyana , India</t>
-  </si>
-  <si>
-    <t>Motisar, Bara, Nepal</t>
-  </si>
-  <si>
-    <t>Modipuram  Meerut Muzaffarnagar Road,250110 UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Village-  Moginand ,Nahan Road Kala Amb </t>
-  </si>
-  <si>
-    <t>Khasara No.1016,Central Hope Town, Camp Road ,Selaqui, Dehradun</t>
-  </si>
-  <si>
-    <t>156, Raipur, Bhagwanpur,Roorkee-247661(U.K.) India</t>
-  </si>
-  <si>
-    <t>4A,Sara Industial Estate Ltd.Selaqui,Rampur-248197 Dehradun(U.K)</t>
-  </si>
-  <si>
-    <t>Ogli,Suketi Road,P.O.-Kala Amb,Tehsil-Nahan,Dist-Sirmour(H.P.)</t>
-  </si>
-  <si>
-    <t>Plot no.A-3,Sara Industrial Area ,Shankarpur,Hukumatpur Tehsil-Vikasnagar ,Dist-Dehradun(U.K)</t>
-  </si>
-  <si>
-    <t>E-18 Selaqui Industrial Area, Dehradun Uttarakhand</t>
-  </si>
-  <si>
-    <t>Plot No 2-5, Pharmacity, Selaqui, Dehradun (U.K)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10, Pharmacity, SIDCUL, Industrial Area, Selaqui, Dehradun </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nand Nagri Industrial State, Phase-II, Mahua Khera Ganj, Kashipur Udham Singh Nagar, </t>
-  </si>
-  <si>
     <t>Khasra No.: 122 MI, Central Hope Town, Behind Pharma City, Selaqui, Dehradun-248197, INDIA</t>
   </si>
   <si>
@@ -178,72 +187,72 @@
     <t>Plot no. 16-17-18,Sec 6A Sidcul Haridwar (U.K)</t>
   </si>
   <si>
-    <t>Plot No-88A,EPIP Phase-II,Thana, Baddi,Distt. Salon (H.P.)</t>
-  </si>
-  <si>
-    <t>G.T Road Uchani ,Karnal (132001)</t>
-  </si>
-  <si>
-    <t>Plot No:B-5, khasra no.9 &amp;10,Dev  Bhoomi industrial Estate Banfakhedi Roorkee, Distt.Haridwar,</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>97</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
@@ -257,15 +266,6 @@
   </si>
   <si>
     <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
   </si>
 </sst>
 </file>

--- a/static/inputData/company_details.xlsx
+++ b/static/inputData/company_details.xlsx
@@ -28,9 +28,63 @@
     <t>Pure &amp; Cure Healthcare Pvt. Ltd.</t>
   </si>
   <si>
+    <t>Cennet Biopharma Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Genetica(Nepal)</t>
+  </si>
+  <si>
+    <t>Hab Pharma</t>
+  </si>
+  <si>
+    <t>Win Medicare PVT.LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishaanav </t>
+  </si>
+  <si>
+    <t>Yacca Lifescience Pvt.Ltd</t>
+  </si>
+  <si>
+    <t>ALDER BIOCHEM</t>
+  </si>
+  <si>
+    <t>Protech Telelinks</t>
+  </si>
+  <si>
+    <t>VED LIFESAVERS (P) LTD.</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
     <t>Quixotic Healthcare</t>
   </si>
   <si>
+    <t>IGL</t>
+  </si>
+  <si>
+    <t>Aarna Healthcare</t>
+  </si>
+  <si>
+    <t>Prohealth Lifesciences</t>
+  </si>
+  <si>
+    <t>Russan Pharma Limited</t>
+  </si>
+  <si>
+    <t>Vivimed Labs Limited.</t>
+  </si>
+  <si>
+    <t>East African/Ear India</t>
+  </si>
+  <si>
+    <t>HFA Formulation</t>
+  </si>
+  <si>
+    <t>Themis Medicare Limited</t>
+  </si>
+  <si>
     <t>Anant Pharma</t>
   </si>
   <si>
@@ -52,66 +106,66 @@
     <t>Lomus Pharmacuticals</t>
   </si>
   <si>
-    <t>Cennet Biopharma Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Genetica(Nepal)</t>
-  </si>
-  <si>
-    <t>Hab Pharma</t>
-  </si>
-  <si>
-    <t>Win Medicare PVT.LTD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ishaanav </t>
-  </si>
-  <si>
-    <t>Yacca Lifescience Pvt.Ltd</t>
-  </si>
-  <si>
-    <t>ALDER BIOCHEM</t>
-  </si>
-  <si>
-    <t>Protech Telelinks</t>
-  </si>
-  <si>
-    <t>VED LIFESAVERS (P) LTD.</t>
-  </si>
-  <si>
-    <t>Oasis</t>
-  </si>
-  <si>
-    <t>IGL</t>
-  </si>
-  <si>
-    <t>Aarna Healthcare</t>
-  </si>
-  <si>
-    <t>Prohealth Lifesciences</t>
-  </si>
-  <si>
-    <t>Russan Pharma Limited</t>
-  </si>
-  <si>
-    <t>Vivimed Labs Limited.</t>
-  </si>
-  <si>
-    <t>East African/Ear India</t>
-  </si>
-  <si>
-    <t>HFA Formulation</t>
-  </si>
-  <si>
-    <t>Themis Medicare Limited</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plot No.27-30, Sec. 8A, IIE, SIDCUL, Ranipur  HARIDWAR </t>
   </si>
   <si>
+    <t xml:space="preserve"> Plot No .3 ,Phase-3,  Sector-18,  Industrial Estate , Barhi, Sonipat,Hariyana , India</t>
+  </si>
+  <si>
+    <t>Motisar, Bara, Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, Pharmacity, SIDCUL, Industrial Area, Selaqui, Dehradun </t>
+  </si>
+  <si>
+    <t>Modipuram  Meerut Muzaffarnagar Road,250110 UP</t>
+  </si>
+  <si>
+    <t>Khasara No.1016,Central Hope Town, Camp Road ,Selaqui, Dehradun</t>
+  </si>
+  <si>
+    <t>156, Raipur, Bhagwanpur,Roorkee-247661(U.K.) India</t>
+  </si>
+  <si>
+    <t>4A,Sara Industial Estate Ltd.Selaqui,Rampur-248197 Dehradun(U.K)</t>
+  </si>
+  <si>
+    <t>Ogli,Suketi Road,P.O.-Kala Amb,Tehsil-Nahan,Dist-Sirmour(H.P.)</t>
+  </si>
+  <si>
+    <t>Plot no.A-3,Sara Industrial Area ,Shankarpur,Hukumatpur Tehsil-Vikasnagar ,Dist-Dehradun(U.K)</t>
+  </si>
+  <si>
+    <t>E-18 Selaqui Industrial Area, Dehradun Uttarakhand</t>
+  </si>
+  <si>
     <t>Plot No-88A,EPIP Phase-II,Thana, Baddi,Distt. Salon (H.P.)</t>
   </si>
   <si>
+    <t>Plot No 2-5, Pharmacity, Selaqui, Dehradun (U.K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nand Nagri Industrial State, Phase-II, Mahua Khera Ganj, Kashipur Udham Singh Nagar, </t>
+  </si>
+  <si>
+    <t>Plot No.177,JLPL Industrial Area,Sector-82,Mohali Panjab-160082</t>
+  </si>
+  <si>
+    <t>Khasra No.: 122 MI, Central Hope Town, Behind Pharma City, Selaqui, Dehradun-248197, INDIA</t>
+  </si>
+  <si>
+    <t>Plot No.-25, Kundeshwari Village, Kashipur-244713, Uttarakhand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plot No.- 8, Pharma City, Dehradun (U.K.) 248011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E-25 Sidcul Selaqui Dehradun</t>
+  </si>
+  <si>
+    <t>Plot no. 16-17-18,Sec 6A Sidcul Haridwar (U.K)</t>
+  </si>
+  <si>
     <t>G.T Road Uchani ,Karnal (132001)</t>
   </si>
   <si>
@@ -133,66 +187,66 @@
     <t>P.O. Box  No. 4506,Lomus House Kallaschour , Gairidhara,   ..Lazimpat,Kathmandu ,Nepal</t>
   </si>
   <si>
-    <t xml:space="preserve"> Plot No .3 ,Phase-3,  Sector-18,  Industrial Estate , Barhi, Sonipat,Hariyana , India</t>
-  </si>
-  <si>
-    <t>Motisar, Bara, Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10, Pharmacity, SIDCUL, Industrial Area, Selaqui, Dehradun </t>
-  </si>
-  <si>
-    <t>Modipuram  Meerut Muzaffarnagar Road,250110 UP</t>
-  </si>
-  <si>
-    <t>Khasara No.1016,Central Hope Town, Camp Road ,Selaqui, Dehradun</t>
-  </si>
-  <si>
-    <t>156, Raipur, Bhagwanpur,Roorkee-247661(U.K.) India</t>
-  </si>
-  <si>
-    <t>4A,Sara Industial Estate Ltd.Selaqui,Rampur-248197 Dehradun(U.K)</t>
-  </si>
-  <si>
-    <t>Ogli,Suketi Road,P.O.-Kala Amb,Tehsil-Nahan,Dist-Sirmour(H.P.)</t>
-  </si>
-  <si>
-    <t>Plot no.A-3,Sara Industrial Area ,Shankarpur,Hukumatpur Tehsil-Vikasnagar ,Dist-Dehradun(U.K)</t>
-  </si>
-  <si>
-    <t>E-18 Selaqui Industrial Area, Dehradun Uttarakhand</t>
-  </si>
-  <si>
-    <t>Plot No 2-5, Pharmacity, Selaqui, Dehradun (U.K)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nand Nagri Industrial State, Phase-II, Mahua Khera Ganj, Kashipur Udham Singh Nagar, </t>
-  </si>
-  <si>
-    <t>Plot No.177,JLPL Industrial Area,Sector-82,Mohali Panjab-160082</t>
-  </si>
-  <si>
-    <t>Khasra No.: 122 MI, Central Hope Town, Behind Pharma City, Selaqui, Dehradun-248197, INDIA</t>
-  </si>
-  <si>
-    <t>Plot No.-25, Kundeshwari Village, Kashipur-244713, Uttarakhand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plot No.- 8, Pharma City, Dehradun (U.K.) 248011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E-25 Sidcul Selaqui Dehradun</t>
-  </si>
-  <si>
-    <t>Plot no. 16-17-18,Sec 6A Sidcul Haridwar (U.K)</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>91</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>94</t>
   </si>
   <si>
@@ -212,60 +266,6 @@
   </si>
   <si>
     <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>90</t>
   </si>
 </sst>
 </file>

--- a/static/inputData/company_details.xlsx
+++ b/static/inputData/company_details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>COMPANY_NAME</t>
   </si>
@@ -28,9 +28,66 @@
     <t>Pure &amp; Cure Healthcare Pvt. Ltd.</t>
   </si>
   <si>
+    <t>VED LIFESAVERS (P) LTD.</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>Quixotic Healthcare</t>
+  </si>
+  <si>
+    <t>IGL</t>
+  </si>
+  <si>
+    <t>Aarna Healthcare</t>
+  </si>
+  <si>
+    <t>Prohealth Lifesciences</t>
+  </si>
+  <si>
+    <t>Russan Pharma Limited</t>
+  </si>
+  <si>
+    <t>Vivimed Labs Limited.</t>
+  </si>
+  <si>
+    <t>East African/Ear India</t>
+  </si>
+  <si>
+    <t>HFA Formulation</t>
+  </si>
+  <si>
     <t>Cennet Biopharma Pvt Ltd</t>
   </si>
   <si>
+    <t>Themis Medicare Limited</t>
+  </si>
+  <si>
+    <t>Anant Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idel Pet Indistries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Smith Biotech pvt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om Sai </t>
+  </si>
+  <si>
+    <t>M/S Uni Medicolabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jai mittra </t>
+  </si>
+  <si>
+    <t>Lomus Pharmacuticals</t>
+  </si>
+  <si>
+    <t>Ajeet</t>
+  </si>
+  <si>
     <t>Genetica(Nepal)</t>
   </si>
   <si>
@@ -52,66 +109,69 @@
     <t>Protech Telelinks</t>
   </si>
   <si>
-    <t>VED LIFESAVERS (P) LTD.</t>
-  </si>
-  <si>
-    <t>Oasis</t>
-  </si>
-  <si>
-    <t>Quixotic Healthcare</t>
-  </si>
-  <si>
-    <t>IGL</t>
-  </si>
-  <si>
-    <t>Aarna Healthcare</t>
-  </si>
-  <si>
-    <t>Prohealth Lifesciences</t>
-  </si>
-  <si>
-    <t>Russan Pharma Limited</t>
-  </si>
-  <si>
-    <t>Vivimed Labs Limited.</t>
-  </si>
-  <si>
-    <t>East African/Ear India</t>
-  </si>
-  <si>
-    <t>HFA Formulation</t>
-  </si>
-  <si>
-    <t>Themis Medicare Limited</t>
-  </si>
-  <si>
-    <t>Anant Pharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idel Pet Indistries </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Smith Biotech pvt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Om Sai </t>
-  </si>
-  <si>
-    <t>M/S Uni Medicolabs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jai mittra </t>
-  </si>
-  <si>
-    <t>Lomus Pharmacuticals</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plot No.27-30, Sec. 8A, IIE, SIDCUL, Ranipur  HARIDWAR </t>
   </si>
   <si>
+    <t>Plot no.A-3,Sara Industrial Area ,Shankarpur,Hukumatpur Tehsil-Vikasnagar ,Dist-Dehradun(U.K)</t>
+  </si>
+  <si>
+    <t>E-18 Selaqui Industrial Area, Dehradun Uttarakhand</t>
+  </si>
+  <si>
+    <t>Plot No-88A,EPIP Phase-II,Thana, Baddi,Distt. Salon (H.P.)</t>
+  </si>
+  <si>
+    <t>Plot No 2-5, Pharmacity, Selaqui, Dehradun (U.K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nand Nagri Industrial State, Phase-II, Mahua Khera Ganj, Kashipur Udham Singh Nagar, </t>
+  </si>
+  <si>
+    <t>Plot No.177,JLPL Industrial Area,Sector-82,Mohali Panjab-160082</t>
+  </si>
+  <si>
+    <t>Khasra No.: 122 MI, Central Hope Town, Behind Pharma City, Selaqui, Dehradun-248197, INDIA</t>
+  </si>
+  <si>
+    <t>Plot No.-25, Kundeshwari Village, Kashipur-244713, Uttarakhand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plot No.- 8, Pharma City, Dehradun (U.K.) 248011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E-25 Sidcul Selaqui Dehradun</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Plot No .3 ,Phase-3,  Sector-18,  Industrial Estate , Barhi, Sonipat,Hariyana , India</t>
   </si>
   <si>
+    <t>Plot no. 16-17-18,Sec 6A Sidcul Haridwar (U.K)</t>
+  </si>
+  <si>
+    <t>G.T Road Uchani ,Karnal (132001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Village-  Moginand ,Nahan Road Kala Amb </t>
+  </si>
+  <si>
+    <t>Plot No:B-5, khasra no.9 &amp;10,Dev  Bhoomi industrial Estate Banfakhedi Roorkee, Distt.Haridwar,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARIDWAR SEDIKUL </t>
+  </si>
+  <si>
+    <t>: Plot No. 21,22 Pharmacity Selaqui Dehradun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONIPAT HARIYANA </t>
+  </si>
+  <si>
+    <t>P.O. Box  No. 4506,Lomus House Kallaschour , Gairidhara,   ..Lazimpat,Kathmandu ,Nepal</t>
+  </si>
+  <si>
+    <t>82/19 gandhi gram kanpur</t>
+  </si>
+  <si>
     <t>Motisar, Bara, Nepal</t>
   </si>
   <si>
@@ -133,66 +193,69 @@
     <t>Ogli,Suketi Road,P.O.-Kala Amb,Tehsil-Nahan,Dist-Sirmour(H.P.)</t>
   </si>
   <si>
-    <t>Plot no.A-3,Sara Industrial Area ,Shankarpur,Hukumatpur Tehsil-Vikasnagar ,Dist-Dehradun(U.K)</t>
-  </si>
-  <si>
-    <t>E-18 Selaqui Industrial Area, Dehradun Uttarakhand</t>
-  </si>
-  <si>
-    <t>Plot No-88A,EPIP Phase-II,Thana, Baddi,Distt. Salon (H.P.)</t>
-  </si>
-  <si>
-    <t>Plot No 2-5, Pharmacity, Selaqui, Dehradun (U.K)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nand Nagri Industrial State, Phase-II, Mahua Khera Ganj, Kashipur Udham Singh Nagar, </t>
-  </si>
-  <si>
-    <t>Plot No.177,JLPL Industrial Area,Sector-82,Mohali Panjab-160082</t>
-  </si>
-  <si>
-    <t>Khasra No.: 122 MI, Central Hope Town, Behind Pharma City, Selaqui, Dehradun-248197, INDIA</t>
-  </si>
-  <si>
-    <t>Plot No.-25, Kundeshwari Village, Kashipur-244713, Uttarakhand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plot No.- 8, Pharma City, Dehradun (U.K.) 248011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E-25 Sidcul Selaqui Dehradun</t>
-  </si>
-  <si>
-    <t>Plot no. 16-17-18,Sec 6A Sidcul Haridwar (U.K)</t>
-  </si>
-  <si>
-    <t>G.T Road Uchani ,Karnal (132001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Village-  Moginand ,Nahan Road Kala Amb </t>
-  </si>
-  <si>
-    <t>Plot No:B-5, khasra no.9 &amp;10,Dev  Bhoomi industrial Estate Banfakhedi Roorkee, Distt.Haridwar,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARIDWAR SEDIKUL </t>
-  </si>
-  <si>
-    <t>: Plot No. 21,22 Pharmacity Selaqui Dehradun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONIPAT HARIYANA </t>
-  </si>
-  <si>
-    <t>P.O. Box  No. 4506,Lomus House Kallaschour , Gairidhara,   ..Lazimpat,Kathmandu ,Nepal</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>103</t>
   </si>
   <si>
@@ -212,60 +275,6 @@
   </si>
   <si>
     <t>31</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
   </si>
 </sst>
 </file>
@@ -623,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,10 +654,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -656,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -667,10 +676,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -678,10 +687,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -689,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -700,10 +709,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -711,10 +720,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -722,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -733,10 +742,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -744,10 +753,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,10 +764,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -766,10 +775,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -777,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -788,10 +797,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -799,10 +808,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -810,10 +819,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -821,10 +830,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -832,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -843,10 +852,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -854,10 +863,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -865,10 +874,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -876,10 +885,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -887,10 +896,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -898,10 +907,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -909,10 +918,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -920,10 +929,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -931,10 +940,21 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/static/inputData/company_details.xlsx
+++ b/static/inputData/company_details.xlsx
@@ -28,9 +28,78 @@
     <t>Pure &amp; Cure Healthcare Pvt. Ltd.</t>
   </si>
   <si>
+    <t>Aarna Healthcare</t>
+  </si>
+  <si>
+    <t>Prohealth Lifesciences</t>
+  </si>
+  <si>
+    <t>M/S Uni Medicolabs</t>
+  </si>
+  <si>
+    <t>Russan Pharma Limited</t>
+  </si>
+  <si>
+    <t>Vivimed Labs Limited.</t>
+  </si>
+  <si>
+    <t>HFA Formulation</t>
+  </si>
+  <si>
+    <t>Cennet Biopharma Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Themis Medicare Limited</t>
+  </si>
+  <si>
+    <t>Anant Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idel Pet Indistries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishaanav </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Smith Biotech pvt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om Sai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jai mittra </t>
+  </si>
+  <si>
     <t>VED LIFESAVERS (P) LTD.</t>
   </si>
   <si>
+    <t>Lomus Pharmacuticals</t>
+  </si>
+  <si>
+    <t>Ajeet</t>
+  </si>
+  <si>
+    <t>Genetica(Nepal)</t>
+  </si>
+  <si>
+    <t>Hab Pharma</t>
+  </si>
+  <si>
+    <t>Win Medicare PVT.LTD.</t>
+  </si>
+  <si>
+    <t>Yacca Lifescience Pvt.Ltd</t>
+  </si>
+  <si>
+    <t>East African/Ear India</t>
+  </si>
+  <si>
+    <t>ALDER BIOCHEM</t>
+  </si>
+  <si>
+    <t>Protech Telelinks</t>
+  </si>
+  <si>
     <t>Oasis</t>
   </si>
   <si>
@@ -40,81 +109,81 @@
     <t>IGL</t>
   </si>
   <si>
-    <t>Aarna Healthcare</t>
-  </si>
-  <si>
-    <t>Prohealth Lifesciences</t>
-  </si>
-  <si>
-    <t>Russan Pharma Limited</t>
-  </si>
-  <si>
-    <t>Vivimed Labs Limited.</t>
-  </si>
-  <si>
-    <t>East African/Ear India</t>
-  </si>
-  <si>
-    <t>HFA Formulation</t>
-  </si>
-  <si>
-    <t>Cennet Biopharma Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Themis Medicare Limited</t>
-  </si>
-  <si>
-    <t>Anant Pharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idel Pet Indistries </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Smith Biotech pvt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Om Sai </t>
-  </si>
-  <si>
-    <t>M/S Uni Medicolabs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jai mittra </t>
-  </si>
-  <si>
-    <t>Lomus Pharmacuticals</t>
-  </si>
-  <si>
-    <t>Ajeet</t>
-  </si>
-  <si>
-    <t>Genetica(Nepal)</t>
-  </si>
-  <si>
-    <t>Hab Pharma</t>
-  </si>
-  <si>
-    <t>Win Medicare PVT.LTD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ishaanav </t>
-  </si>
-  <si>
-    <t>Yacca Lifescience Pvt.Ltd</t>
-  </si>
-  <si>
-    <t>ALDER BIOCHEM</t>
-  </si>
-  <si>
-    <t>Protech Telelinks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plot No.27-30, Sec. 8A, IIE, SIDCUL, Ranipur  HARIDWAR </t>
   </si>
   <si>
+    <t xml:space="preserve">Nand Nagri Industrial State, Phase-II, Mahua Khera Ganj, Kashipur Udham Singh Nagar, </t>
+  </si>
+  <si>
+    <t>Plot No.177,JLPL Industrial Area,Sector-82,Mohali Panjab-160082</t>
+  </si>
+  <si>
+    <t>: Plot No. 21,22 Pharmacity Selaqui Dehradun</t>
+  </si>
+  <si>
+    <t>Khasra No.: 122 MI, Central Hope Town, Behind Pharma City, Selaqui, Dehradun-248197, INDIA</t>
+  </si>
+  <si>
+    <t>Plot No.-25, Kundeshwari Village, Kashipur-244713, Uttarakhand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E-25 Sidcul Selaqui Dehradun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plot No .3 ,Phase-3,  Sector-18,  Industrial Estate , Barhi, Sonipat,Hariyana , India</t>
+  </si>
+  <si>
+    <t>Plot no. 16-17-18,Sec 6A Sidcul Haridwar (U.K)</t>
+  </si>
+  <si>
+    <t>G.T Road Uchani ,Karnal (132001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Village-  Moginand ,Nahan Road Kala Amb </t>
+  </si>
+  <si>
+    <t>Khasara No.1016,Central Hope Town, Camp Road ,Selaqui, Dehradun</t>
+  </si>
+  <si>
+    <t>Plot No:B-5, khasra no.9 &amp;10,Dev  Bhoomi industrial Estate Banfakhedi Roorkee, Distt.Haridwar,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARIDWAR SEDIKUL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONIPAT HARIYANA </t>
+  </si>
+  <si>
     <t>Plot no.A-3,Sara Industrial Area ,Shankarpur,Hukumatpur Tehsil-Vikasnagar ,Dist-Dehradun(U.K)</t>
   </si>
   <si>
+    <t>P.O. Box  No. 4506,Lomus House Kallaschour , Gairidhara,   ..Lazimpat,Kathmandu ,Nepal</t>
+  </si>
+  <si>
+    <t>82/19 gandhi gram kanpur</t>
+  </si>
+  <si>
+    <t>Motisar, Bara, Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, Pharmacity, SIDCUL, Industrial Area, Selaqui, Dehradun </t>
+  </si>
+  <si>
+    <t>Modipuram  Meerut Muzaffarnagar Road,250110 UP</t>
+  </si>
+  <si>
+    <t>156, Raipur, Bhagwanpur,Roorkee-247661(U.K.) India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plot No.- 8, Pharma City, Dehradun (U.K.) 248011</t>
+  </si>
+  <si>
+    <t>4A,Sara Industial Estate Ltd.Selaqui,Rampur-248197 Dehradun(U.K)</t>
+  </si>
+  <si>
+    <t>Ogli,Suketi Road,P.O.-Kala Amb,Tehsil-Nahan,Dist-Sirmour(H.P.)</t>
+  </si>
+  <si>
     <t>E-18 Selaqui Industrial Area, Dehradun Uttarakhand</t>
   </si>
   <si>
@@ -124,81 +193,81 @@
     <t>Plot No 2-5, Pharmacity, Selaqui, Dehradun (U.K)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nand Nagri Industrial State, Phase-II, Mahua Khera Ganj, Kashipur Udham Singh Nagar, </t>
-  </si>
-  <si>
-    <t>Plot No.177,JLPL Industrial Area,Sector-82,Mohali Panjab-160082</t>
-  </si>
-  <si>
-    <t>Khasra No.: 122 MI, Central Hope Town, Behind Pharma City, Selaqui, Dehradun-248197, INDIA</t>
-  </si>
-  <si>
-    <t>Plot No.-25, Kundeshwari Village, Kashipur-244713, Uttarakhand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plot No.- 8, Pharma City, Dehradun (U.K.) 248011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E-25 Sidcul Selaqui Dehradun</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plot No .3 ,Phase-3,  Sector-18,  Industrial Estate , Barhi, Sonipat,Hariyana , India</t>
-  </si>
-  <si>
-    <t>Plot no. 16-17-18,Sec 6A Sidcul Haridwar (U.K)</t>
-  </si>
-  <si>
-    <t>G.T Road Uchani ,Karnal (132001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Village-  Moginand ,Nahan Road Kala Amb </t>
-  </si>
-  <si>
-    <t>Plot No:B-5, khasra no.9 &amp;10,Dev  Bhoomi industrial Estate Banfakhedi Roorkee, Distt.Haridwar,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARIDWAR SEDIKUL </t>
-  </si>
-  <si>
-    <t>: Plot No. 21,22 Pharmacity Selaqui Dehradun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONIPAT HARIYANA </t>
-  </si>
-  <si>
-    <t>P.O. Box  No. 4506,Lomus House Kallaschour , Gairidhara,   ..Lazimpat,Kathmandu ,Nepal</t>
-  </si>
-  <si>
-    <t>82/19 gandhi gram kanpur</t>
-  </si>
-  <si>
-    <t>Motisar, Bara, Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10, Pharmacity, SIDCUL, Industrial Area, Selaqui, Dehradun </t>
-  </si>
-  <si>
-    <t>Modipuram  Meerut Muzaffarnagar Road,250110 UP</t>
-  </si>
-  <si>
-    <t>Khasara No.1016,Central Hope Town, Camp Road ,Selaqui, Dehradun</t>
-  </si>
-  <si>
-    <t>156, Raipur, Bhagwanpur,Roorkee-247661(U.K.) India</t>
-  </si>
-  <si>
-    <t>4A,Sara Industial Estate Ltd.Selaqui,Rampur-248197 Dehradun(U.K)</t>
-  </si>
-  <si>
-    <t>Ogli,Suketi Road,P.O.-Kala Amb,Tehsil-Nahan,Dist-Sirmour(H.P.)</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
@@ -206,75 +275,6 @@
   </si>
   <si>
     <t>16</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>31</t>
   </si>
 </sst>
 </file>

--- a/static/inputData/company_details.xlsx
+++ b/static/inputData/company_details.xlsx
@@ -28,9 +28,66 @@
     <t>Pure &amp; Cure Healthcare Pvt. Ltd.</t>
   </si>
   <si>
+    <t>Anant Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idel Pet Indistries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishaanav </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Smith Biotech pvt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om Sai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jai mittra </t>
+  </si>
+  <si>
+    <t>VED LIFESAVERS (P) LTD.</t>
+  </si>
+  <si>
+    <t>Lomus Pharmacuticals</t>
+  </si>
+  <si>
+    <t>Ajeet</t>
+  </si>
+  <si>
+    <t>Genetica(Nepal)</t>
+  </si>
+  <si>
     <t>Aarna Healthcare</t>
   </si>
   <si>
+    <t>Hab Pharma</t>
+  </si>
+  <si>
+    <t>Win Medicare PVT.LTD.</t>
+  </si>
+  <si>
+    <t>Yacca Lifescience Pvt.Ltd</t>
+  </si>
+  <si>
+    <t>East African/Ear India</t>
+  </si>
+  <si>
+    <t>ALDER BIOCHEM</t>
+  </si>
+  <si>
+    <t>Protech Telelinks</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>Quixotic Healthcare</t>
+  </si>
+  <si>
+    <t>IGL</t>
+  </si>
+  <si>
     <t>Prohealth Lifesciences</t>
   </si>
   <si>
@@ -52,69 +109,69 @@
     <t>Themis Medicare Limited</t>
   </si>
   <si>
-    <t>Anant Pharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idel Pet Indistries </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ishaanav </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Smith Biotech pvt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Om Sai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jai mittra </t>
-  </si>
-  <si>
-    <t>VED LIFESAVERS (P) LTD.</t>
-  </si>
-  <si>
-    <t>Lomus Pharmacuticals</t>
-  </si>
-  <si>
-    <t>Ajeet</t>
-  </si>
-  <si>
-    <t>Genetica(Nepal)</t>
-  </si>
-  <si>
-    <t>Hab Pharma</t>
-  </si>
-  <si>
-    <t>Win Medicare PVT.LTD.</t>
-  </si>
-  <si>
-    <t>Yacca Lifescience Pvt.Ltd</t>
-  </si>
-  <si>
-    <t>East African/Ear India</t>
-  </si>
-  <si>
-    <t>ALDER BIOCHEM</t>
-  </si>
-  <si>
-    <t>Protech Telelinks</t>
-  </si>
-  <si>
-    <t>Oasis</t>
-  </si>
-  <si>
-    <t>Quixotic Healthcare</t>
-  </si>
-  <si>
-    <t>IGL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plot No.27-30, Sec. 8A, IIE, SIDCUL, Ranipur  HARIDWAR </t>
   </si>
   <si>
+    <t>G.T Road Uchani ,Karnal (132001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Village-  Moginand ,Nahan Road Kala Amb </t>
+  </si>
+  <si>
+    <t>Khasara No.1016,Central Hope Town, Camp Road ,Selaqui, Dehradun</t>
+  </si>
+  <si>
+    <t>Plot No:B-5, khasra no.9 &amp;10,Dev  Bhoomi industrial Estate Banfakhedi Roorkee, Distt.Haridwar,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARIDWAR SEDIKUL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONIPAT HARIYANA </t>
+  </si>
+  <si>
+    <t>Plot no.A-3,Sara Industrial Area ,Shankarpur,Hukumatpur Tehsil-Vikasnagar ,Dist-Dehradun(U.K)</t>
+  </si>
+  <si>
+    <t>P.O. Box  No. 4506,Lomus House Kallaschour , Gairidhara,   ..Lazimpat,Kathmandu ,Nepal</t>
+  </si>
+  <si>
+    <t>82/19 gandhi gram kanpur</t>
+  </si>
+  <si>
+    <t>Motisar, Bara, Nepal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nand Nagri Industrial State, Phase-II, Mahua Khera Ganj, Kashipur Udham Singh Nagar, </t>
   </si>
   <si>
+    <t xml:space="preserve">10, Pharmacity, SIDCUL, Industrial Area, Selaqui, Dehradun </t>
+  </si>
+  <si>
+    <t>Modipuram  Meerut Muzaffarnagar Road,250110 UP</t>
+  </si>
+  <si>
+    <t>156, Raipur, Bhagwanpur,Roorkee-247661(U.K.) India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plot No.- 8, Pharma City, Dehradun (U.K.) 248011</t>
+  </si>
+  <si>
+    <t>4A,Sara Industial Estate Ltd.Selaqui,Rampur-248197 Dehradun(U.K)</t>
+  </si>
+  <si>
+    <t>Ogli,Suketi Road,P.O.-Kala Amb,Tehsil-Nahan,Dist-Sirmour(H.P.)</t>
+  </si>
+  <si>
+    <t>E-18 Selaqui Industrial Area, Dehradun Uttarakhand</t>
+  </si>
+  <si>
+    <t>Plot No-88A,EPIP Phase-II,Thana, Baddi,Distt. Salon (H.P.)</t>
+  </si>
+  <si>
+    <t>Plot No 2-5, Pharmacity, Selaqui, Dehradun (U.K)</t>
+  </si>
+  <si>
     <t>Plot No.177,JLPL Industrial Area,Sector-82,Mohali Panjab-160082</t>
   </si>
   <si>
@@ -136,69 +193,69 @@
     <t>Plot no. 16-17-18,Sec 6A Sidcul Haridwar (U.K)</t>
   </si>
   <si>
-    <t>G.T Road Uchani ,Karnal (132001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Village-  Moginand ,Nahan Road Kala Amb </t>
-  </si>
-  <si>
-    <t>Khasara No.1016,Central Hope Town, Camp Road ,Selaqui, Dehradun</t>
-  </si>
-  <si>
-    <t>Plot No:B-5, khasra no.9 &amp;10,Dev  Bhoomi industrial Estate Banfakhedi Roorkee, Distt.Haridwar,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARIDWAR SEDIKUL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONIPAT HARIYANA </t>
-  </si>
-  <si>
-    <t>Plot no.A-3,Sara Industrial Area ,Shankarpur,Hukumatpur Tehsil-Vikasnagar ,Dist-Dehradun(U.K)</t>
-  </si>
-  <si>
-    <t>P.O. Box  No. 4506,Lomus House Kallaschour , Gairidhara,   ..Lazimpat,Kathmandu ,Nepal</t>
-  </si>
-  <si>
-    <t>82/19 gandhi gram kanpur</t>
-  </si>
-  <si>
-    <t>Motisar, Bara, Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10, Pharmacity, SIDCUL, Industrial Area, Selaqui, Dehradun </t>
-  </si>
-  <si>
-    <t>Modipuram  Meerut Muzaffarnagar Road,250110 UP</t>
-  </si>
-  <si>
-    <t>156, Raipur, Bhagwanpur,Roorkee-247661(U.K.) India</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plot No.- 8, Pharma City, Dehradun (U.K.) 248011</t>
-  </si>
-  <si>
-    <t>4A,Sara Industial Estate Ltd.Selaqui,Rampur-248197 Dehradun(U.K)</t>
-  </si>
-  <si>
-    <t>Ogli,Suketi Road,P.O.-Kala Amb,Tehsil-Nahan,Dist-Sirmour(H.P.)</t>
-  </si>
-  <si>
-    <t>E-18 Selaqui Industrial Area, Dehradun Uttarakhand</t>
-  </si>
-  <si>
-    <t>Plot No-88A,EPIP Phase-II,Thana, Baddi,Distt. Salon (H.P.)</t>
-  </si>
-  <si>
-    <t>Plot No 2-5, Pharmacity, Selaqui, Dehradun (U.K)</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>76</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>97</t>
   </si>
   <si>
@@ -218,63 +275,6 @@
   </si>
   <si>
     <t>90</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
 </sst>
 </file>
